--- a/Data_preparation/datasets/final_data/BigBearai_Holdings_Inc.xlsx
+++ b/Data_preparation/datasets/final_data/BigBearai_Holdings_Inc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,48 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>3665 TT</t>
-  </si>
-  <si>
-    <t>EXPN LN</t>
-  </si>
-  <si>
-    <t>AMP IM</t>
-  </si>
-  <si>
-    <t>UBI FP</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>5803 JP</t>
-  </si>
-  <si>
-    <t>6701 JP</t>
-  </si>
-  <si>
-    <t>6954 JP</t>
-  </si>
-  <si>
-    <t>ENR GR</t>
-  </si>
-  <si>
-    <t>3443 TT</t>
-  </si>
-  <si>
-    <t>6526 JP</t>
-  </si>
-  <si>
-    <t>CCC LN</t>
-  </si>
-  <si>
-    <t>IFX GR</t>
-  </si>
-  <si>
-    <t>6588 JP</t>
   </si>
 </sst>
 </file>
@@ -694,22 +652,22 @@
         <v>44189</v>
       </c>
       <c r="D2">
-        <v>208.9655558685401</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>266.4632568359375</v>
+        <v>9.710000038146973</v>
       </c>
       <c r="F2">
-        <v>278.9067898351006</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>208.9655558685401</v>
+        <v>9.560000419616699</v>
       </c>
       <c r="H2">
-        <v>193969420</v>
+        <v>436518932</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>97290000</v>
@@ -771,22 +729,22 @@
         <v>44286</v>
       </c>
       <c r="D3">
-        <v>2516.34996159507</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>2790.17041015625</v>
+        <v>9.710000038146973</v>
       </c>
       <c r="F3">
-        <v>2807.159270103477</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>2503.838146397838</v>
+        <v>9.560000419616699</v>
       </c>
       <c r="H3">
-        <v>913159452</v>
+        <v>436518932</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>453522552</v>
@@ -860,22 +818,22 @@
         <v>44377</v>
       </c>
       <c r="D4">
-        <v>40.06459571156605</v>
+        <v>9.850000381469728</v>
       </c>
       <c r="E4">
-        <v>40.04537963867188</v>
+        <v>9.779999732971191</v>
       </c>
       <c r="F4">
-        <v>40.5353766696543</v>
+        <v>9.85200023651123</v>
       </c>
       <c r="G4">
-        <v>36.25990124070713</v>
+        <v>9.760000228881836</v>
       </c>
       <c r="H4">
-        <v>219937482</v>
+        <v>436518932</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>452603560</v>
@@ -967,22 +925,22 @@
         <v>44469</v>
       </c>
       <c r="D5">
-        <v>51.72000122070312</v>
+        <v>9.890000343322754</v>
       </c>
       <c r="E5">
-        <v>45.22999954223633</v>
+        <v>9.970000267028809</v>
       </c>
       <c r="F5">
-        <v>53.2400016784668</v>
+        <v>9.970000267028809</v>
       </c>
       <c r="G5">
-        <v>43.54000091552734</v>
+        <v>9.829999923706056</v>
       </c>
       <c r="H5">
-        <v>134598631</v>
+        <v>436518932</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>453063056</v>
@@ -1062,22 +1020,22 @@
         <v>44561</v>
       </c>
       <c r="D6">
-        <v>98.06110899770088</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="E6">
-        <v>84.43734741210938</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="F6">
-        <v>98.06110899770088</v>
+        <v>6.091000080108643</v>
       </c>
       <c r="G6">
-        <v>80.56356001156674</v>
+        <v>4.449999809265137</v>
       </c>
       <c r="H6">
-        <v>229140423</v>
+        <v>436518932</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>909503136</v>
@@ -1175,22 +1133,22 @@
         <v>44651</v>
       </c>
       <c r="D7">
-        <v>564.8420934999623</v>
+        <v>8.819999694824219</v>
       </c>
       <c r="E7">
-        <v>567.5840454101562</v>
+        <v>10.01000022888184</v>
       </c>
       <c r="F7">
-        <v>568.4980293802209</v>
+        <v>16.1200008392334</v>
       </c>
       <c r="G7">
-        <v>487.1534560444658</v>
+        <v>8.039999961853027</v>
       </c>
       <c r="H7">
-        <v>275900103</v>
+        <v>436518932</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>1117065710</v>
@@ -1291,22 +1249,22 @@
         <v>44742</v>
       </c>
       <c r="D8">
-        <v>990.9535599144536</v>
+        <v>3.670000076293945</v>
       </c>
       <c r="E8">
-        <v>932.830322265625</v>
+        <v>2.539999961853028</v>
       </c>
       <c r="F8">
-        <v>1065.275076908038</v>
+        <v>3.839999914169312</v>
       </c>
       <c r="G8">
-        <v>932.830322265625</v>
+        <v>2.440000057220459</v>
       </c>
       <c r="H8">
-        <v>1333460157</v>
+        <v>436518932</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>464649500</v>
@@ -1407,22 +1365,22 @@
         <v>44834</v>
       </c>
       <c r="D9">
-        <v>3829.951036061672</v>
+        <v>1.590000033378601</v>
       </c>
       <c r="E9">
-        <v>3718.19677734375</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="F9">
-        <v>4026.941593801738</v>
+        <v>2.079999923706055</v>
       </c>
       <c r="G9">
-        <v>3570.453859038701</v>
+        <v>1.110000014305115</v>
       </c>
       <c r="H9">
-        <v>933160187</v>
+        <v>436518932</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>198237249</v>
@@ -1523,22 +1481,22 @@
         <v>44926</v>
       </c>
       <c r="D10">
-        <v>17.67499923706055</v>
+        <v>0.7160000205039978</v>
       </c>
       <c r="E10">
-        <v>19.1200008392334</v>
+        <v>3.269999980926514</v>
       </c>
       <c r="F10">
-        <v>19.76000022888184</v>
+        <v>4.449999809265137</v>
       </c>
       <c r="G10">
-        <v>17.08499908447266</v>
+        <v>0.6740000247955322</v>
       </c>
       <c r="H10">
-        <v>795535712</v>
+        <v>436518932</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>85071636</v>
@@ -1639,22 +1597,22 @@
         <v>45016</v>
       </c>
       <c r="D11">
-        <v>4646.163088703966</v>
+        <v>2.5</v>
       </c>
       <c r="E11">
-        <v>4397.0390625</v>
+        <v>2.900000095367432</v>
       </c>
       <c r="F11">
-        <v>4647.12125803552</v>
+        <v>3.740000009536743</v>
       </c>
       <c r="G11">
-        <v>4224.568582820331</v>
+        <v>2.019999980926514</v>
       </c>
       <c r="H11">
-        <v>933160187</v>
+        <v>436518932</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>345204605</v>
@@ -1755,22 +1713,22 @@
         <v>45107</v>
       </c>
       <c r="D12">
-        <v>299.8867087280755</v>
+        <v>2.394999980926514</v>
       </c>
       <c r="E12">
-        <v>279.6763610839844</v>
+        <v>2.009999990463257</v>
       </c>
       <c r="F12">
-        <v>311.3327623979251</v>
+        <v>2.430000066757202</v>
       </c>
       <c r="G12">
-        <v>274.7053735580706</v>
+        <v>1.740000009536743</v>
       </c>
       <c r="H12">
-        <v>193969420</v>
+        <v>436518932</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>335786960</v>
@@ -1871,22 +1829,22 @@
         <v>45199</v>
       </c>
       <c r="D13">
-        <v>1366.269412157012</v>
+        <v>1.549999952316284</v>
       </c>
       <c r="E13">
-        <v>1400.426147460938</v>
+        <v>1.269999980926514</v>
       </c>
       <c r="F13">
-        <v>1722.475366040805</v>
+        <v>1.590000033378601</v>
       </c>
       <c r="G13">
-        <v>1356.510344927319</v>
+        <v>1.159999966621399</v>
       </c>
       <c r="H13">
-        <v>134011000</v>
+        <v>436518932</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>235299223</v>
@@ -1987,22 +1945,22 @@
         <v>45291</v>
       </c>
       <c r="D14">
-        <v>124.5980016318655</v>
+        <v>2.069999933242798</v>
       </c>
       <c r="E14">
-        <v>132.1493988037109</v>
+        <v>1.620000004768372</v>
       </c>
       <c r="F14">
-        <v>136.1187273141222</v>
+        <v>2.240000009536743</v>
       </c>
       <c r="G14">
-        <v>122.5649354352075</v>
+        <v>1.620000004768372</v>
       </c>
       <c r="H14">
-        <v>229140423</v>
+        <v>436518932</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>335585853</v>
@@ -2103,22 +2061,22 @@
         <v>45382</v>
       </c>
       <c r="D15">
-        <v>4156.728619089413</v>
+        <v>2.039999961853028</v>
       </c>
       <c r="E15">
-        <v>4553.76318359375</v>
+        <v>1.659999966621399</v>
       </c>
       <c r="F15">
-        <v>5096.40944657156</v>
+        <v>2.069999933242798</v>
       </c>
       <c r="G15">
-        <v>3750.957352676668</v>
+        <v>1.440000057220459</v>
       </c>
       <c r="H15">
-        <v>175134528</v>
+        <v>436518932</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>497387455</v>
@@ -2219,22 +2177,22 @@
         <v>45473</v>
       </c>
       <c r="D16">
-        <v>2890.935410112718</v>
+        <v>1.490000009536743</v>
       </c>
       <c r="E16">
-        <v>2691.009033203125</v>
+        <v>1.509999990463257</v>
       </c>
       <c r="F16">
-        <v>3014.889763796666</v>
+        <v>1.669999957084656</v>
       </c>
       <c r="G16">
-        <v>2519.072349060875</v>
+        <v>1.370000004768372</v>
       </c>
       <c r="H16">
-        <v>104878138</v>
+        <v>436518932</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>371574878</v>
@@ -2335,22 +2293,22 @@
         <v>45565</v>
       </c>
       <c r="D17">
-        <v>31.23959479848472</v>
+        <v>1.440000057220459</v>
       </c>
       <c r="E17">
-        <v>28.76222801208496</v>
+        <v>1.590000033378601</v>
       </c>
       <c r="F17">
-        <v>31.50219696309808</v>
+        <v>1.940000057220459</v>
       </c>
       <c r="G17">
-        <v>28.63340577082776</v>
+        <v>1.360000014305115</v>
       </c>
       <c r="H17">
-        <v>1299391231</v>
+        <v>436518932</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>365107294</v>
@@ -2451,22 +2409,22 @@
         <v>45657</v>
       </c>
       <c r="D18">
-        <v>2476.994723535176</v>
+        <v>4.585000038146973</v>
       </c>
       <c r="E18">
-        <v>2384.00341796875</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="F18">
-        <v>2758.415779854624</v>
+        <v>4.820000171661377</v>
       </c>
       <c r="G18">
-        <v>2325.761495008725</v>
+        <v>2.849999904632568</v>
       </c>
       <c r="H18">
-        <v>175134528</v>
+        <v>436518932</v>
       </c>
       <c r="I18" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>1115107242</v>
@@ -2567,22 +2525,22 @@
         <v>45747</v>
       </c>
       <c r="D19">
-        <v>3590.70430246099</v>
+        <v>2.900000095367432</v>
       </c>
       <c r="E19">
-        <v>3714.694091796875</v>
+        <v>3.410000085830688</v>
       </c>
       <c r="F19">
-        <v>3714.694091796875</v>
+        <v>3.789999961853027</v>
       </c>
       <c r="G19">
-        <v>3048.748932944461</v>
+        <v>2.359999895095825</v>
       </c>
       <c r="H19">
-        <v>913159452</v>
+        <v>436518932</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>826559871</v>
@@ -2683,22 +2641,22 @@
         <v>45838</v>
       </c>
       <c r="D20">
-        <v>2937</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="E20">
-        <v>3025</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="F20">
-        <v>3125</v>
+        <v>8.720000267028809</v>
       </c>
       <c r="G20">
-        <v>2890</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="H20">
-        <v>52985470</v>
+        <v>436518932</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>1977171986</v>
